--- a/ExcelJDBCMysql/src/main/java/created/Import.xlsx
+++ b/ExcelJDBCMysql/src/main/java/created/Import.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\up2github\ExcelJava\ExcelJDBCMysql\src\main\java\created\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429BC342-9C16-4A3D-BF89-6DBE7E2A4475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10E16D1-2852-47B5-BD4C-073600E58696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="email db" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>NO</t>
   </si>
@@ -34,29 +47,101 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>sha</t>
-  </si>
-  <si>
-    <t>shasha@yahoo.com</t>
-  </si>
-  <si>
-    <t>shasha brouse</t>
-  </si>
-  <si>
-    <t>ann</t>
-  </si>
-  <si>
-    <t>anne@gmail.com</t>
-  </si>
-  <si>
-    <t>anne leonhart</t>
+    <t>Eren Yeager</t>
+  </si>
+  <si>
+    <t>eren.yeager@gmail.com</t>
+  </si>
+  <si>
+    <t>Mikasa Ackerman</t>
+  </si>
+  <si>
+    <t>mikasa.ackerman@yahoo.com</t>
+  </si>
+  <si>
+    <t>Armin Arlert</t>
+  </si>
+  <si>
+    <t>armin.arlert@outlook.com</t>
+  </si>
+  <si>
+    <t>Levi Ackerman</t>
+  </si>
+  <si>
+    <t>levi.ackerman@gmail.com</t>
+  </si>
+  <si>
+    <t>Erwin Smith</t>
+  </si>
+  <si>
+    <t>erwin.smith@yahoo.com</t>
+  </si>
+  <si>
+    <t>Hange Zoë</t>
+  </si>
+  <si>
+    <t>hange.zoe@outlook.com</t>
+  </si>
+  <si>
+    <t>Jean Kirstein</t>
+  </si>
+  <si>
+    <t>jean.kirstein@gmail.com</t>
+  </si>
+  <si>
+    <t>Connie Springer</t>
+  </si>
+  <si>
+    <t>connie.springer@yahoo.com</t>
+  </si>
+  <si>
+    <t>Sasha Blouse</t>
+  </si>
+  <si>
+    <t>sasha.blouse@outlook.com</t>
+  </si>
+  <si>
+    <t>Historia Reiss</t>
+  </si>
+  <si>
+    <t>historia.reiss@gmail.com</t>
+  </si>
+  <si>
+    <t>Ere4</t>
+  </si>
+  <si>
+    <t>Mik2</t>
+  </si>
+  <si>
+    <t>Arm1</t>
+  </si>
+  <si>
+    <t>Lev6</t>
+  </si>
+  <si>
+    <t>Erw17</t>
+  </si>
+  <si>
+    <t>Han1</t>
+  </si>
+  <si>
+    <t>Jea15</t>
+  </si>
+  <si>
+    <t>Con4</t>
+  </si>
+  <si>
+    <t>Sas1</t>
+  </si>
+  <si>
+    <t>His1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -70,14 +155,6 @@
       <sz val="14"/>
       <color indexed="12"/>
       <name val="COMIC SANS MS"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,17 +174,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,20 +520,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -467,38 +549,146 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6C923341-8A6B-44AA-827F-14AD9C8E693E}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{8F49C200-F475-431D-A974-AF89EB88EDFD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>